--- a/biology/Zoologie/Albatros_à_cape_blanche/Albatros_à_cape_blanche.xlsx
+++ b/biology/Zoologie/Albatros_à_cape_blanche/Albatros_à_cape_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_cape_blanche</t>
+          <t>Albatros_à_cape_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassarche cauta · Albatros timide
 L'Albatros à cape blanche ou Albatros timide (Thalassarche cauta) est une espèce d'oiseaux de mer de la famille des Diomedeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_cape_blanche</t>
+          <t>Albatros_à_cape_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet albatros pèse de 3,2 à 5,1 kg pour une longueur d'environ 99 cm et une envergure de 198 à 260 cm.
 Il s'agit de l'espèce la plus imposante du groupe des "petits" albatros  aux parties supérieures sombres contrastant avec le croupion blanc et à la queue sombre, courte et arrondie.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_cape_blanche</t>
+          <t>Albatros_à_cape_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros timide niche sur Auckland, les Antipodes et en Tasmanie (Mewston, Pedra Branca et Île Albatross).
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_cape_blanche</t>
+          <t>Albatros_à_cape_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de poissons et de crustacés.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Albatros_%C3%A0_cape_blanche</t>
+          <t>Albatros_à_cape_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Albatros timide est représenté par deux sous-espèces :
 cauta avec un bec relativement pâle aux reflets jaunes accentués, nicheuse en Tasmanie ;
